--- a/KOMPEGE/block 22/dz 2/22_15337.xlsx
+++ b/KOMPEGE/block 22/dz 2/22_15337.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maratishimov/Documents/Documents/КИМ 2024/ЕГЭ_Основа_2023/досрок/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\PycharmProjects\EGEtasks\KOMPEGE\block 22\dz 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D95527-94A7-5646-933B-05330494FEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBDF2A8-DE7E-4289-B986-9C4DF397A514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3720" yWindow="4185" windowWidth="33825" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -103,6 +103,1479 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>10026</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53909973-28B1-4FED-BC5C-1C348EC93EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3875171" y="195513"/>
+          <a:ext cx="1112921" cy="195513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27885</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>208358</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADC260B-E413-4299-A788-34E634079761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4117682" y="421730"/>
+          <a:ext cx="859129" cy="195513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>189562</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольник 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30DD7950-1A87-47A4-BEF0-8E3AFD8EA8A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4998747" y="200527"/>
+          <a:ext cx="1769018" cy="195513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>16920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>192380</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F134B32-3771-442F-A671-ABB701BBD23B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6821342" y="200527"/>
+          <a:ext cx="1532772" cy="195513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28827</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>214314</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Прямоугольник 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04AA844A-7504-4027-82C5-A1B8E959B96F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6833249" y="395096"/>
+          <a:ext cx="1769018" cy="195513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10539</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>191013</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22711</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Прямоугольник 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{062F81D8-8E44-4256-B828-2668856E85AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8398492" y="589198"/>
+          <a:ext cx="859130" cy="195513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>211925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>26292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>176206</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Прямоугольник 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDFEF60-EDDD-40B7-B7BC-5DE62121A636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9278534" y="597792"/>
+          <a:ext cx="642938" cy="195513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>10969</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>174521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>201467</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Прямоугольник 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A63C734-C7E1-49F1-9CB9-0DFC187604BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982453" y="555521"/>
+          <a:ext cx="190498" cy="195513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46689</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>212120</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Прямоугольник 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246185BE-C061-4E3D-887A-49FFBBEE4DA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6624892" y="1209423"/>
+          <a:ext cx="1975181" cy="195513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46689</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>24754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>222146</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>24753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Прямоугольник 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FBFAFC-9340-4D8D-B520-568DE07BBC78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6624892" y="596254"/>
+          <a:ext cx="1758988" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>64550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>3764</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Прямоугольник 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02180158-0DE7-4423-B46F-108BCAD6AA12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6868972" y="792706"/>
+          <a:ext cx="1522745" cy="195514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16924</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>197395</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>41674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Прямоугольник 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D95C42-DA51-4B4F-9FEA-A0ACA551E142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8404877" y="803673"/>
+          <a:ext cx="1311565" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16923</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>202407</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49502</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Прямоугольник 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB18B51-BAAD-4834-9639-BA0FDD1ADDF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8404876" y="1012030"/>
+          <a:ext cx="1090359" cy="180472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Прямая со стрелкой 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A40CBA-5FCB-4F94-B8BE-F1A1603ABE50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4968979" y="293270"/>
+          <a:ext cx="29768" cy="5014"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>208358</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Прямая со стрелкой 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C0E43C-D138-493A-AFD1-62DDDA8AAC74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4976811" y="298284"/>
+          <a:ext cx="21936" cy="221203"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>189562</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>16920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107784</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Прямая со стрелкой 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B79E71E-61C1-4502-96A1-A50FFEC0E3C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6767765" y="298284"/>
+          <a:ext cx="53577" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>189562</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28827</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Прямая со стрелкой 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2306118-BBAC-4CFD-B4E4-FC09ED3B90DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6767765" y="298284"/>
+          <a:ext cx="65484" cy="194569"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>192380</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10539</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Прямая со стрелкой 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7737C657-CAA5-4B1E-9631-633E2CD9ED84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8354114" y="298284"/>
+          <a:ext cx="44378" cy="388671"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>214314</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>111853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>211925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>124049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Прямая со стрелкой 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87C9E9E-D132-4480-81FB-8E535035FB41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8602267" y="492853"/>
+          <a:ext cx="676267" cy="202696"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>191013</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>211925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>124049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Прямая со стрелкой 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25CE6D0C-46F4-44E4-8B32-DC728E7AAB5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9257622" y="686955"/>
+          <a:ext cx="20912" cy="8594"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>176206</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>10969</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>124049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Прямая со стрелкой 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53817B33-686F-435C-8365-918D2A6A6168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9921472" y="653278"/>
+          <a:ext cx="60981" cy="42271"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>222146</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16924</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>136924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Прямая со стрелкой 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D85D8C-0511-4E2F-B6D7-E33002D3A4FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8383880" y="691504"/>
+          <a:ext cx="20997" cy="207420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>222146</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16923</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>149766</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Прямая со стрелкой 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0187AC10-1CDA-422B-A4DA-63B47979E2C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8383880" y="691504"/>
+          <a:ext cx="20996" cy="410762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>3764</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>128463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16923</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>149766</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Прямая со стрелкой 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36E913C-1C82-433D-AF25-A1D980C31588}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8391717" y="890463"/>
+          <a:ext cx="13159" cy="211803"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,20 +1841,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:CE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="83" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,8 +1865,248 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <v>20</v>
+      </c>
+      <c r="X1">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <v>24</v>
+      </c>
+      <c r="AB1">
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <v>26</v>
+      </c>
+      <c r="AD1">
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
+      <c r="AF1">
+        <v>29</v>
+      </c>
+      <c r="AG1">
+        <v>30</v>
+      </c>
+      <c r="AH1">
+        <v>31</v>
+      </c>
+      <c r="AI1">
+        <v>32</v>
+      </c>
+      <c r="AJ1">
+        <v>33</v>
+      </c>
+      <c r="AK1">
+        <v>34</v>
+      </c>
+      <c r="AL1">
+        <v>35</v>
+      </c>
+      <c r="AM1">
+        <v>36</v>
+      </c>
+      <c r="AN1">
+        <v>37</v>
+      </c>
+      <c r="AO1">
+        <v>38</v>
+      </c>
+      <c r="AP1">
+        <v>39</v>
+      </c>
+      <c r="AQ1">
+        <v>40</v>
+      </c>
+      <c r="AR1">
+        <v>41</v>
+      </c>
+      <c r="AS1">
+        <v>42</v>
+      </c>
+      <c r="AT1">
+        <v>43</v>
+      </c>
+      <c r="AU1">
+        <v>44</v>
+      </c>
+      <c r="AV1">
+        <v>45</v>
+      </c>
+      <c r="AW1">
+        <v>46</v>
+      </c>
+      <c r="AX1">
+        <v>47</v>
+      </c>
+      <c r="AY1">
+        <v>48</v>
+      </c>
+      <c r="AZ1">
+        <v>49</v>
+      </c>
+      <c r="BA1">
+        <v>50</v>
+      </c>
+      <c r="BB1">
+        <v>51</v>
+      </c>
+      <c r="BC1">
+        <v>52</v>
+      </c>
+      <c r="BD1">
+        <v>53</v>
+      </c>
+      <c r="BE1">
+        <v>54</v>
+      </c>
+      <c r="BF1">
+        <v>55</v>
+      </c>
+      <c r="BG1">
+        <v>56</v>
+      </c>
+      <c r="BH1">
+        <v>57</v>
+      </c>
+      <c r="BI1">
+        <v>58</v>
+      </c>
+      <c r="BJ1">
+        <v>59</v>
+      </c>
+      <c r="BK1">
+        <v>60</v>
+      </c>
+      <c r="BL1">
+        <v>61</v>
+      </c>
+      <c r="BM1">
+        <v>62</v>
+      </c>
+      <c r="BN1">
+        <v>63</v>
+      </c>
+      <c r="BO1">
+        <v>64</v>
+      </c>
+      <c r="BP1">
+        <v>65</v>
+      </c>
+      <c r="BQ1">
+        <v>66</v>
+      </c>
+      <c r="BR1">
+        <v>67</v>
+      </c>
+      <c r="BS1">
+        <v>68</v>
+      </c>
+      <c r="BT1">
+        <v>69</v>
+      </c>
+      <c r="BU1">
+        <v>70</v>
+      </c>
+      <c r="BV1">
+        <v>71</v>
+      </c>
+      <c r="BW1">
+        <v>72</v>
+      </c>
+      <c r="BX1">
+        <v>73</v>
+      </c>
+      <c r="BY1">
+        <v>74</v>
+      </c>
+      <c r="BZ1">
+        <v>75</v>
+      </c>
+      <c r="CA1">
+        <v>76</v>
+      </c>
+      <c r="CB1">
+        <v>77</v>
+      </c>
+      <c r="CC1">
+        <v>78</v>
+      </c>
+      <c r="CD1">
+        <v>79</v>
+      </c>
+      <c r="CE1">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -403,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -414,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -425,7 +2139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -436,7 +2150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -447,7 +2161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -458,7 +2172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -468,8 +2182,32 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -480,7 +2218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -491,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -502,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -513,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -524,7 +2262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -537,5 +2275,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>